--- a/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/社員情報一覧画面エビデンス　張.xlsx
+++ b/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/社員情報一覧画面エビデンス　張.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ami\Desktop\画面开发\上传\2023-04\202304\04_単体テスト\01_単体テストのエビデンス\チーム２\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3907322A-85BD-476C-B358-2F5E66CE5DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DBCD64-4208-42B3-9339-F8ACDB974ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,13 +835,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>340</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>423</xdr:row>
       <xdr:rowOff>123717</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -879,13 +879,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>39635</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>433</xdr:row>
       <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>816618</xdr:colOff>
-      <xdr:row>422</xdr:row>
+      <xdr:row>466</xdr:row>
       <xdr:rowOff>36919</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -923,13 +923,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>335492</xdr:colOff>
-      <xdr:row>431</xdr:row>
+      <xdr:row>475</xdr:row>
       <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>474</xdr:row>
+      <xdr:row>518</xdr:row>
       <xdr:rowOff>58836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -967,13 +967,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>478</xdr:row>
+      <xdr:row>522</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>439119</xdr:colOff>
-      <xdr:row>537</xdr:row>
+      <xdr:row>581</xdr:row>
       <xdr:rowOff>144862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1011,13 +1011,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>137583</xdr:colOff>
-      <xdr:row>540</xdr:row>
+      <xdr:row>584</xdr:row>
       <xdr:rowOff>87841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>311958</xdr:colOff>
-      <xdr:row>593</xdr:row>
+      <xdr:row>637</xdr:row>
       <xdr:rowOff>3008</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1055,13 +1055,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>597</xdr:row>
+      <xdr:row>641</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>64277</xdr:colOff>
-      <xdr:row>642</xdr:row>
+      <xdr:row>686</xdr:row>
       <xdr:rowOff>11556</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1099,13 +1099,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>645</xdr:row>
+      <xdr:row>689</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>692</xdr:row>
+      <xdr:row>736</xdr:row>
       <xdr:rowOff>46219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1143,13 +1143,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>130175</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>462</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>421</xdr:row>
+      <xdr:row>465</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1207,13 +1207,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>462</xdr:row>
       <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>426</xdr:row>
+      <xdr:row>470</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1229,7 +1229,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12242799" y="67738625"/>
+          <a:off x="12242799" y="74863325"/>
           <a:ext cx="1952625" cy="1266825"/>
           <a:chOff x="12249149" y="67738625"/>
           <a:chExt cx="1952625" cy="1266825"/>
@@ -1394,7 +1394,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>413</xdr:row>
+      <xdr:row>457</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1495425" cy="264560"/>
@@ -1449,7 +1449,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1120775</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>446</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1495425" cy="264560"/>
@@ -1500,6 +1500,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>38604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>866763</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>120651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CABDF381-773C-55D6-F883-082F946BD2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295276" y="54769254"/>
+          <a:ext cx="11150587" cy="6562222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1790,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O596"/>
+  <dimension ref="A1:O640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="P421" sqref="P421"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A394" sqref="A382:XFD394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3755,139 +3799,139 @@
         <v>75</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A339" s="6" t="s">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A388" s="6" t="s">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="6" t="s">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B424" s="2" t="s">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B468" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C424" s="2"/>
-    </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B425" s="3" t="s">
+      <c r="C468" s="2"/>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B469" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C425" s="3" t="s">
+      <c r="C469" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D425" s="3" t="s">
+      <c r="D469" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E425" s="3" t="s">
+      <c r="E469" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F425" s="3" t="s">
+      <c r="F469" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G425" s="3" t="s">
+      <c r="G469" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H425" s="3" t="s">
+      <c r="H469" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I425" s="3" t="s">
+      <c r="I469" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J425" s="3" t="s">
+      <c r="J469" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K425" s="3" t="s">
+      <c r="K469" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L425" s="3" t="s">
+      <c r="L469" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M425" s="3" t="s">
+      <c r="M469" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N425" s="3" t="s">
+      <c r="N469" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O425" s="3" t="s">
+      <c r="O469" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B426" s="3">
-        <v>1</v>
-      </c>
-      <c r="C426" s="3" t="s">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B470" s="3">
+        <v>1</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D426" s="3" t="s">
+      <c r="D470" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E426" s="4">
+      <c r="E470" s="4">
         <v>45035</v>
       </c>
-      <c r="F426" s="3" t="s">
+      <c r="F470" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G426" s="3" t="s">
+      <c r="G470" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H426" s="3">
-        <v>1</v>
-      </c>
-      <c r="I426" s="3">
+      <c r="H470" s="3">
+        <v>1</v>
+      </c>
+      <c r="I470" s="3">
         <v>42</v>
       </c>
-      <c r="J426" s="3">
+      <c r="J470" s="3">
         <v>4</v>
       </c>
-      <c r="K426" s="3">
+      <c r="K470" s="3">
         <v>9011111111</v>
       </c>
-      <c r="L426" s="3" t="s">
+      <c r="L470" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M426" s="3">
-        <v>1</v>
-      </c>
-      <c r="N426" s="5">
+      <c r="M470" s="3">
+        <v>1</v>
+      </c>
+      <c r="N470" s="5">
         <v>45034.2640046296</v>
       </c>
-      <c r="O426" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="429" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A429" s="6" t="s">
+      <c r="O470" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A473" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A430" s="6" t="s">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A474" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A477" s="6" t="s">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A596" s="6" t="s">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A640" s="6" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>